--- a/portafolio/logs personales rafael/log personales.xlsx
+++ b/portafolio/logs personales rafael/log personales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\App\portafolio\logs personales rafael\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA05C8E-3EC3-43D3-82BD-A54822EDA2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181C3399-DA6E-4C0E-A90F-4CE4E769415A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15585" yWindow="-600" windowWidth="14895" windowHeight="19515" xr2:uid="{16E063A2-75A2-4F88-8C1D-0A8BBC2D48A7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B667226-E953-4B97-ADBE-9845AA26019A}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,6 +887,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>45375</v>
+      </c>
+      <c r="B22" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J29" s="12"/>
     </row>

--- a/portafolio/logs personales rafael/log personales.xlsx
+++ b/portafolio/logs personales rafael/log personales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\App\portafolio\logs personales rafael\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\App\portafolio\logs personales rafael\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181C3399-DA6E-4C0E-A90F-4CE4E769415A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4572A17D-7F0F-4169-9552-7366FA650673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15585" yWindow="-600" windowWidth="14895" windowHeight="19515" xr2:uid="{16E063A2-75A2-4F88-8C1D-0A8BBC2D48A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{16E063A2-75A2-4F88-8C1D-0A8BBC2D48A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Mantenimiento de la app</t>
+  </si>
+  <si>
+    <t>11:00 - 18:00</t>
   </si>
 </sst>
 </file>
@@ -593,20 +596,20 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="83.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="15.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="83.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -623,10 +626,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>45313</v>
       </c>
@@ -640,7 +643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>45315</v>
       </c>
@@ -654,7 +657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>45317</v>
       </c>
@@ -668,7 +671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>45324</v>
       </c>
@@ -682,7 +685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>45325</v>
       </c>
@@ -696,7 +699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>45327</v>
       </c>
@@ -710,7 +713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>45329</v>
       </c>
@@ -724,7 +727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>45334</v>
       </c>
@@ -738,7 +741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>45338</v>
       </c>
@@ -752,7 +755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>45339</v>
       </c>
@@ -766,7 +769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>45341</v>
       </c>
@@ -780,7 +783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>45345</v>
       </c>
@@ -794,7 +797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>45353</v>
       </c>
@@ -808,7 +811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>45355</v>
       </c>
@@ -822,7 +825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>45359</v>
       </c>
@@ -836,7 +839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>45361</v>
       </c>
@@ -850,7 +853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>45362</v>
       </c>
@@ -864,16 +867,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>45367</v>
       </c>
-      <c r="C20" s="15"/>
+      <c r="C20" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="D20" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>45369</v>
       </c>
@@ -887,24 +892,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>45375</v>
       </c>
-      <c r="B22" s="11">
-        <v>0.45833333333333331</v>
+      <c r="B22" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J29" s="12"/>
     </row>
-    <row r="40" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D40" s="13">
         <f>SUM(D3:D39)</f>
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/portafolio/logs personales rafael/log personales.xlsx
+++ b/portafolio/logs personales rafael/log personales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\App\portafolio\logs personales rafael\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\App\portafolio\logs personales rafael\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4572A17D-7F0F-4169-9552-7366FA650673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E730C5-CC48-4B44-8568-EA35E62B092C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{16E063A2-75A2-4F88-8C1D-0A8BBC2D48A7}"/>
+    <workbookView xWindow="-15990" yWindow="3105" windowWidth="14895" windowHeight="10590" xr2:uid="{16E063A2-75A2-4F88-8C1D-0A8BBC2D48A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -149,10 +149,22 @@
     <t>15:00 - 20:00</t>
   </si>
   <si>
-    <t>Mantenimiento de la app</t>
-  </si>
-  <si>
     <t>11:00 - 18:00</t>
+  </si>
+  <si>
+    <t>Mantenimiento de la app y conecxion entre las paginas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantenimiento de la app, creacion de forum para los post, actualizacion de funciones </t>
+  </si>
+  <si>
+    <t>Mantenimiento de la app, conecxion entre las paginas, update de paquetes</t>
+  </si>
+  <si>
+    <t>Continuacion con la pagina de post y home page</t>
+  </si>
+  <si>
+    <t>8:00: - 17:00</t>
   </si>
 </sst>
 </file>
@@ -212,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -255,9 +267,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,21 +604,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B667226-E953-4B97-ADBE-9845AA26019A}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="83.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="15.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="83.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -626,10 +635,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>45313</v>
       </c>
@@ -643,7 +652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>45315</v>
       </c>
@@ -657,7 +666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>45317</v>
       </c>
@@ -671,7 +680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>45324</v>
       </c>
@@ -685,7 +694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>45325</v>
       </c>
@@ -699,7 +708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>45327</v>
       </c>
@@ -713,7 +722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>45329</v>
       </c>
@@ -727,7 +736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>45334</v>
       </c>
@@ -741,7 +750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>45338</v>
       </c>
@@ -755,7 +764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>45339</v>
       </c>
@@ -769,7 +778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>45341</v>
       </c>
@@ -783,7 +792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>45345</v>
       </c>
@@ -797,7 +806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>45353</v>
       </c>
@@ -811,7 +820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>45355</v>
       </c>
@@ -825,7 +834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>45359</v>
       </c>
@@ -839,7 +848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>45361</v>
       </c>
@@ -853,7 +862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>45362</v>
       </c>
@@ -867,18 +876,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>45367</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>37</v>
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="D20" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>45369</v>
       </c>
@@ -886,33 +898,47 @@
         <v>36</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D21" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>45375</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D22" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>45378</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J29" s="12"/>
     </row>
-    <row r="40" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D40" s="13">
         <f>SUM(D3:D39)</f>
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/portafolio/logs personales rafael/log personales.xlsx
+++ b/portafolio/logs personales rafael/log personales.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\App\portafolio\logs personales rafael\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\App\portafolio\logs personales rafael\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E730C5-CC48-4B44-8568-EA35E62B092C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726F3594-4D03-4814-97D0-3700B81881E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15990" yWindow="3105" windowWidth="14895" windowHeight="10590" xr2:uid="{16E063A2-75A2-4F88-8C1D-0A8BBC2D48A7}"/>
   </bookViews>
@@ -224,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -267,6 +267,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B667226-E953-4B97-ADBE-9845AA26019A}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,6 +935,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B24" s="5">
+        <v>10</v>
+      </c>
+    </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J29" s="12"/>
     </row>

--- a/portafolio/logs personales rafael/log personales.xlsx
+++ b/portafolio/logs personales rafael/log personales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\App\portafolio\logs personales rafael\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726F3594-4D03-4814-97D0-3700B81881E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B3E709-BEE4-45B5-8C52-7C5A487FE0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15990" yWindow="3105" windowWidth="14895" windowHeight="10590" xr2:uid="{16E063A2-75A2-4F88-8C1D-0A8BBC2D48A7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>8:00: - 17:00</t>
+  </si>
+  <si>
+    <t>Mantenimiento y correccion de errores</t>
   </si>
 </sst>
 </file>
@@ -607,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B667226-E953-4B97-ADBE-9845AA26019A}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,8 +942,14 @@
       <c r="A24" s="15">
         <v>45380</v>
       </c>
-      <c r="B24" s="5">
-        <v>10</v>
+      <c r="B24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -949,7 +958,7 @@
     <row r="40" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D40" s="13">
         <f>SUM(D3:D39)</f>
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/portafolio/logs personales rafael/log personales.xlsx
+++ b/portafolio/logs personales rafael/log personales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\App\portafolio\logs personales rafael\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B3E709-BEE4-45B5-8C52-7C5A487FE0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2155C3-F9BE-4ACB-9047-19B1AB620A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15990" yWindow="3105" windowWidth="14895" windowHeight="10590" xr2:uid="{16E063A2-75A2-4F88-8C1D-0A8BBC2D48A7}"/>
+    <workbookView xWindow="-14745" yWindow="5625" windowWidth="14895" windowHeight="10590" xr2:uid="{16E063A2-75A2-4F88-8C1D-0A8BBC2D48A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -168,6 +168,18 @@
   </si>
   <si>
     <t>Mantenimiento y correccion de errores</t>
+  </si>
+  <si>
+    <t>16:00 - 22:00</t>
+  </si>
+  <si>
+    <t>Revision de la aplicacion y preparacion del informe semanal</t>
+  </si>
+  <si>
+    <t>15:00 - 19:00</t>
+  </si>
+  <si>
+    <t>9:00 - 17:00</t>
   </si>
 </sst>
 </file>
@@ -227,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -270,9 +282,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B667226-E953-4B97-ADBE-9845AA26019A}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,8 +948,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
-        <v>45380</v>
+      <c r="A24" s="10">
+        <v>45379</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>29</v>
@@ -952,13 +961,72 @@
         <v>12</v>
       </c>
     </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>45380</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>45385</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>45387</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>45389</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="3">
+        <v>8</v>
+      </c>
+    </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>45391</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="3">
+        <v>6</v>
+      </c>
       <c r="J29" s="12"/>
     </row>
     <row r="40" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D40" s="13">
         <f>SUM(D3:D39)</f>
-        <v>127</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
